--- a/data/topology_NTC2024v1.xlsx
+++ b/data/topology_NTC2024v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA2FE065-C9AC-472D-85E4-A5318DDA48DE}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE6777B-B51D-413A-A8DB-576F9F0D0314}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="41640" yWindow="150" windowWidth="14340" windowHeight="7245" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="191">
   <si>
     <t>DK1</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>SE3_AC-SE4_AC</t>
+  </si>
+  <si>
+    <t>topologyType</t>
+  </si>
+  <si>
+    <t>ntcMarket</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,20 +1043,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AC1CD3-5B58-418C-B7E6-C6C1748DD1AD}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1064,8 +1066,11 @@
       <c r="C1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1074,6 +1079,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1092,15 +1100,15 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1202,7 +1210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1236,7 +1244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1372,7 +1380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1389,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1440,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1520,17 +1528,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6106AD-B8E1-4460-AC6F-62DB62A8D837}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
     <col min="2" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1544,7 +1552,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -1572,7 +1580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1586,7 +1594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1614,7 +1622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -1670,7 +1678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -1684,7 +1692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1698,7 +1706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -1712,7 +1720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -1726,7 +1734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -1740,7 +1748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>184</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1768,7 +1776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1782,7 +1790,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1810,7 +1818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -1824,7 +1832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1838,7 +1846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -1866,7 +1874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -1880,7 +1888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -1894,7 +1902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -1908,7 +1916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1922,7 +1930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1936,7 +1944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -1964,7 +1972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -2006,7 +2014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -2020,7 +2028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -2034,7 +2042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2048,7 +2056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -2062,7 +2070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -2076,7 +2084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -2118,7 +2126,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2146,7 +2154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -2160,7 +2168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2188,7 +2196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -2202,7 +2210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -2216,7 +2224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -2230,7 +2238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -2244,7 +2252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -2258,7 +2266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2272,7 +2280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2286,7 +2294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2300,7 +2308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2314,7 +2322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2328,7 +2336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -2356,7 +2364,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -2384,7 +2392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -2398,7 +2406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -2412,7 +2420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -2426,7 +2434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -2440,7 +2448,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -2468,7 +2476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -2496,7 +2504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>102</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -2566,7 +2574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>104</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -2608,7 +2616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -2622,7 +2630,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>105</v>
       </c>
@@ -2657,14 +2665,14 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2675,7 +2683,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2686,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -2708,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2719,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -2730,7 +2738,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -2741,7 +2749,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -2752,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -2763,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -2785,7 +2793,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -2796,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -2834,13 +2842,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2848,7 +2856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2864,7 +2872,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -2872,7 +2880,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2888,7 +2896,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2912,7 +2920,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -2920,7 +2928,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -2928,7 +2936,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -2952,7 +2960,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -2960,7 +2968,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -2968,7 +2976,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -2976,7 +2984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -2984,7 +2992,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>154</v>
       </c>
